--- a/AUC_ROC_results/auc/AUC_AR_ALL_performance.xlsx
+++ b/AUC_ROC_results/auc/AUC_AR_ALL_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/auc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_4C6543ECF613C8264F2C4CE8953BC2117AB6FB94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99746517-23AF-4EF1-A060-D38DEA03F2E6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,84 +536,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9844416340358335</v>
+        <v>0.98444163403583351</v>
       </c>
       <c r="C2">
-        <v>96.60234899328859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>96.602348993288587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9832411473446954</v>
+        <v>0.98324114734469537</v>
       </c>
       <c r="C3">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.9762761066856893</v>
+        <v>0.97627610668568932</v>
       </c>
       <c r="C4">
-        <v>96.81208053691275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>96.812080536912745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.9630127707050783</v>
+        <v>0.96301277070507829</v>
       </c>
       <c r="C5">
-        <v>96.51845637583892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>96.518456375838923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.9538286061954699</v>
+        <v>0.95382860619546994</v>
       </c>
       <c r="C6">
-        <v>96.51845637583892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>96.518456375838923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9415516615908959</v>
+        <v>0.94155166159089587</v>
       </c>
       <c r="C7">
-        <v>96.81208053691275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>96.812080536912745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9338727388799629</v>
+        <v>0.93387273887996292</v>
       </c>
       <c r="C8">
-        <v>96.72818791946308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>96.728187919463082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -599,32 +621,32 @@
         <v>0.920428242183151</v>
       </c>
       <c r="C9">
-        <v>92.32382550335571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>92.323825503355707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9177451970804961</v>
+        <v>0.91774519708049607</v>
       </c>
       <c r="C10">
-        <v>90.35234899328859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>90.352348993288587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.9173275770908907</v>
+        <v>0.91732757709089074</v>
       </c>
       <c r="C11">
-        <v>96.51845637583892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>96.518456375838923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -632,120 +654,120 @@
         <v>0.9114128024489333</v>
       </c>
       <c r="C12">
-        <v>85.8221476510067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>85.822147651006702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9072273332628362</v>
+        <v>0.90722733326283622</v>
       </c>
       <c r="C13">
-        <v>96.51845637583892</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>96.518456375838923</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.8999720908822362</v>
+        <v>0.89997209088223618</v>
       </c>
       <c r="C14">
-        <v>88.21308724832215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>88.213087248322154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.8975023325247248</v>
+        <v>0.89750233252472478</v>
       </c>
       <c r="C15">
-        <v>63.21308724832215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>63.213087248322147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.8958698301927996</v>
+        <v>0.89586983019279964</v>
       </c>
       <c r="C16">
-        <v>85.8221476510067</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>85.822147651006702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.892829783221893</v>
+        <v>0.89282978322189299</v>
       </c>
       <c r="C17">
-        <v>84.94127516778524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>84.941275167785236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.8928012776696987</v>
+        <v>0.89280127766969875</v>
       </c>
       <c r="C18">
         <v>93.12080536912751</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.8856408268477012</v>
+        <v>0.88564082684770118</v>
       </c>
       <c r="C19">
-        <v>79.86577181208054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>79.865771812080538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.8762080667769779</v>
+        <v>0.87620806677697793</v>
       </c>
       <c r="C20">
-        <v>90.05872483221476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>90.058724832214764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8742073745763456</v>
+        <v>0.87420737457634556</v>
       </c>
       <c r="C21">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.8627800601484812</v>
+        <v>0.86278006014848119</v>
       </c>
       <c r="C22">
-        <v>92.65939597315436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>92.659395973154361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -753,194 +775,194 @@
         <v>0.8542138739289441</v>
       </c>
       <c r="C23">
-        <v>90.05872483221476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>90.058724832214764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.8473224435796016</v>
+        <v>0.84732244357960163</v>
       </c>
       <c r="C24">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.8456911169917545</v>
+        <v>0.84569111699175448</v>
       </c>
       <c r="C25">
-        <v>96.51845637583892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>96.518456375838923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.843156420669374</v>
+        <v>0.84315642066937402</v>
       </c>
       <c r="C26">
-        <v>94.79865771812081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>94.798657718120808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.8426287421847958</v>
+        <v>0.84262874218479578</v>
       </c>
       <c r="C27">
-        <v>96.64429530201343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>96.644295302013433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.8412247718434624</v>
+        <v>0.84122477184346245</v>
       </c>
       <c r="C28">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.8250743755642199</v>
+        <v>0.82507437556421992</v>
       </c>
       <c r="C29">
-        <v>85.61241610738254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>85.612416107382543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.8215368306912987</v>
+        <v>0.82153683069129868</v>
       </c>
       <c r="C30">
-        <v>93.83389261744966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>93.833892617449663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.8185066378707997</v>
+        <v>0.81850663787079969</v>
       </c>
       <c r="C31">
-        <v>92.23993288590604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>92.239932885906043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.7952713525509518</v>
+        <v>0.79527135255095183</v>
       </c>
       <c r="C32">
-        <v>87.87751677852349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>87.877516778523486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.7946669701107572</v>
+        <v>0.79466697011075715</v>
       </c>
       <c r="C33">
         <v>97.06375838926175</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.7872679645363982</v>
+        <v>0.78726796453639825</v>
       </c>
       <c r="C34">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.7692557457301539</v>
+        <v>0.76925574573015387</v>
       </c>
       <c r="C35">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.7667013310203581</v>
+        <v>0.76670133102035809</v>
       </c>
       <c r="C36">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.7422690165768269</v>
+        <v>0.74226901657682687</v>
       </c>
       <c r="C37">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.735482598948565</v>
+        <v>0.73548259894856505</v>
       </c>
       <c r="C38">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.6932549071252654</v>
+        <v>0.69325490712526538</v>
       </c>
       <c r="C39">
-        <v>97.18959731543623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>97.189597315436231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.3346488475581926</v>
+        <v>0.33464884755819257</v>
       </c>
       <c r="C40">
-        <v>86.36744966442953</v>
+        <v>86.367449664429529</v>
       </c>
     </row>
   </sheetData>
